--- a/exposan/bwaise/comparison/comparison_summary.xlsx
+++ b/exposan/bwaise/comparison/comparison_summary.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yalinli_cabbi/OneDrive/Coding/es/exposan/bwaise/comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B6D32-C405-4C4B-AC94-404E34509E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{A41B6D32-C405-4C4B-AC94-404E34509E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8F129C-956D-4C42-A1D4-172B4396B6B1}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="1880" windowWidth="25920" windowHeight="16580" xr2:uid="{C322E86D-AF8D-7D47-9916-FBB30EE50BE1}"/>
+    <workbookView xWindow="15800" yWindow="4080" windowWidth="25920" windowHeight="16060" xr2:uid="{C322E86D-AF8D-7D47-9916-FBB30EE50BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +111,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,72 +262,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4702FC9B-272D-1046-AACE-2988F8D5861A}">
-  <dimension ref="A1:H26"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,541 +679,714 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>0.05</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <f>0.012+0.395</f>
         <v>0.40700000000000003</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="23">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="13">
         <v>0.497</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="6">
-        <f>0.03+0.252</f>
-        <v>0.28200000000000003</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="6">
-        <v>0.34599999999999997</v>
+      <c r="C4" s="14">
+        <v>2.4714122080550651E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2.5428040509084811E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.24683998890718431</v>
+      </c>
+      <c r="F4" s="15">
+        <f>25.1940481719699%+0.250146297884746%</f>
+        <v>0.25444194469854647</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.35310333359814411</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.34256513045241599</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="6">
-        <f>0.013+0.354</f>
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="6">
-        <v>0.45700000000000002</v>
+      <c r="C5" s="21">
+        <v>3.7621388440872781E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.9443772245188399E-2</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.36074787667407399</v>
+      </c>
+      <c r="F5" s="15">
+        <f>35.2824635948954%+1.26854772942805%</f>
+        <v>0.36551011324323446</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.46299857929535271</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.45553179334302102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
-        <f>0.031+0.497</f>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19">
-        <v>0.56399999999999995</v>
+      <c r="C6" s="22">
+        <v>7.1148068507237899E-2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>7.0969831220507804E-2</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.52400293686820987</v>
+      </c>
+      <c r="F6" s="17">
+        <f>49.9434106184313%+2.98442384592527%</f>
+        <v>0.52927834464356571</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.56697648704363779</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.56285933275195199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="23">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="23">
         <v>0.33900000000000002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>0.34200000000000003</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="23">
         <v>0.78500000000000003</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
         <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="6">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="6">
-        <v>0.67500000000000004</v>
+      <c r="C8" s="21">
+        <v>3.1297706398589413E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3.02625885723549E-2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.14326136920226301</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.13952883686758799</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.67278041383865939</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.67193433270393299</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6">
-        <v>6.2E-2</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="6">
-        <v>0.247</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="6">
-        <v>0.76500000000000001</v>
+      <c r="C9" s="21">
+        <v>6.1498207885307632E-2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>6.11901292582177E-2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.23969972819586241</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.24664400365970701</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.76398541263730135</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.76438105955160096</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19">
-        <v>0.161</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19">
-        <v>0.83399999999999996</v>
+      <c r="C10" s="22">
+        <v>0.15953573540777449</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.16717240453983501</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.39844707796372658</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.41255737412149501</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.8275729768354857</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.83853003234619095</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="23">
         <v>0.41</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>0.40699999999999997</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="23">
         <v>0.79100000000000004</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>0.78800000000000003</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="23">
         <v>0.56799999999999995</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="6">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="6">
-        <v>0.498</v>
+      <c r="C12" s="21">
+        <v>0.30320439853094422</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.30286792901334603</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.61358837863679794</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.61374960060737704</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.48031240736174918</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.496643502309632</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="6">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="6">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="6">
-        <v>0.59799999999999998</v>
+      <c r="C13" s="21">
+        <v>0.41026090343599991</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.41133490362861802</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.76939273645111428</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.77508082833734704</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.58692406963611532</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.59768714880670304</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19">
-        <v>0.70199999999999996</v>
+      <c r="C14" s="22">
+        <v>0.53630110005521892</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.53717995388110695</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.92894005345265362</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.93449182525173702</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.68668487712279502</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.69882928445386205</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="23">
         <v>0.76100000000000001</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="13">
         <v>0.75900000000000001</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="12">
         <v>0.76100000000000001</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="13">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="12">
         <v>0.96499999999999997</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="13">
         <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="6">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="7">
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="21">
+        <v>0.6623410646786152</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.66218666554087902</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.65928892840808417</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.65941577353575598</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.92544958315848302</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.92449988873433697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7">
-        <v>0.751</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6">
-        <v>0.751</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="7">
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="C17" s="21">
+        <v>0.74825745006399447</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.75176901309362198</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.7458809257256328</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.75206639010440202</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.9474937809846693</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.95076940180278502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23">
-        <v>0.84</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="19">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="22">
+        <v>0.83089497550948255</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.84189420913670499</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.83190418062661098</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.84181319506445196</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.97057336678818595</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.97528084690424199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="24">
         <v>14.2</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="9">
         <v>14.21</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="8">
         <v>7.3</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="9">
         <v>7.29</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="8">
         <v>22.1</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="9">
         <v>22.05</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="8">
-        <v>10.51</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="8">
-        <v>4.13</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8">
-        <v>16.39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
+      <c r="C20" s="25">
+        <v>10.642127889904989</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10.4097799540561</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3.9458564428348062</v>
+      </c>
+      <c r="F20" s="27">
+        <v>4.0143281855253798</v>
+      </c>
+      <c r="G20" s="25">
+        <v>15.774620683803629</v>
+      </c>
+      <c r="H20" s="27">
+        <v>16.3744296337352</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="8">
-        <v>14.26</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8">
-        <v>21.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
+      <c r="C21" s="25">
+        <v>14.10756856081365</v>
+      </c>
+      <c r="D21" s="4">
+        <v>14.4176784007935</v>
+      </c>
+      <c r="E21" s="25">
+        <v>8.0495915173895476</v>
+      </c>
+      <c r="F21" s="27">
+        <v>8.4612552140236996</v>
+      </c>
+      <c r="G21" s="25">
+        <v>21.13816498421917</v>
+      </c>
+      <c r="H21" s="27">
+        <v>21.953184827904</v>
+      </c>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9">
-        <v>24.69</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="9">
-        <v>18.75</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="9">
-        <v>36.880000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="26">
+        <v>24.381827744089591</v>
+      </c>
+      <c r="D22" s="5">
+        <v>24.6535588167947</v>
+      </c>
+      <c r="E22" s="26">
+        <v>18.407808693027569</v>
+      </c>
+      <c r="F22" s="29">
+        <v>18.609379767353499</v>
+      </c>
+      <c r="G22" s="26">
+        <v>32.233685720564573</v>
+      </c>
+      <c r="H22" s="29">
+        <v>36.562610780570402</v>
+      </c>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="24">
         <v>58.6</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="9">
         <v>59.03</v>
       </c>
       <c r="E23" s="24">
         <v>20.7</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="30">
         <v>20.54</v>
       </c>
       <c r="G23" s="24">
         <v>15.1</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="30">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4" t="s">
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="8">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="8">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4" t="s">
+      <c r="C24" s="18">
+        <v>32.86601067577601</v>
+      </c>
+      <c r="D24" s="4">
+        <v>34.545807399986799</v>
+      </c>
+      <c r="E24" s="25">
+        <v>9.1279213905874261</v>
+      </c>
+      <c r="F24" s="27">
+        <v>10.750458935406501</v>
+      </c>
+      <c r="G24" s="25">
+        <v>2.430053527942452</v>
+      </c>
+      <c r="H24" s="27">
+        <v>3.6496044062066502</v>
+      </c>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="8">
-        <v>69.02</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="8">
-        <v>28.22</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="8">
-        <v>18.84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4" t="s">
+      <c r="C25" s="18">
+        <v>65.820696528769844</v>
+      </c>
+      <c r="D25" s="4">
+        <v>68.714465420894697</v>
+      </c>
+      <c r="E25" s="25">
+        <v>27.273634231520699</v>
+      </c>
+      <c r="F25" s="27">
+        <v>28.0449135268159</v>
+      </c>
+      <c r="G25" s="25">
+        <v>17.820540064336161</v>
+      </c>
+      <c r="H25" s="27">
+        <v>18.554581970763799</v>
+      </c>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="9">
-        <v>106.75</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="9">
-        <v>54.68</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="9">
-        <v>43.58</v>
-      </c>
+      <c r="C26" s="19">
+        <v>108.869383978043</v>
+      </c>
+      <c r="D26" s="5">
+        <v>107.11069591320999</v>
+      </c>
+      <c r="E26" s="26">
+        <v>54.139822210614533</v>
+      </c>
+      <c r="F26" s="29">
+        <v>52.423034850449703</v>
+      </c>
+      <c r="G26" s="26">
+        <v>40.515180222718087</v>
+      </c>
+      <c r="H26" s="29">
+        <v>44.234868584396203</v>
+      </c>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="20"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28" s="20"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/bwaise/comparison/comparison_summary.xlsx
+++ b/exposan/bwaise/comparison/comparison_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{A41B6D32-C405-4C4B-AC94-404E34509E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8F129C-956D-4C42-A1D4-172B4396B6B1}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="13_ncr:1_{A41B6D32-C405-4C4B-AC94-404E34509E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C352C85B-5E80-9D40-B4DB-EE4E5DA03E48}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="4080" windowWidth="25920" windowHeight="16060" xr2:uid="{C322E86D-AF8D-7D47-9916-FBB30EE50BE1}"/>
+    <workbookView xWindow="25020" yWindow="8920" windowWidth="25920" windowHeight="16060" xr2:uid="{C322E86D-AF8D-7D47-9916-FBB30EE50BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -280,70 +280,70 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,26 +679,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
@@ -719,409 +719,409 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>0.05</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F3" s="13">
-        <f>0.012+0.395</f>
+      <c r="F3" s="11">
+        <f>1.2%+39.5%</f>
         <v>0.40700000000000003</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>0.497</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14">
-        <v>2.4714122080550651E-2</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2.5428040509084811E-2</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0.24683998890718431</v>
-      </c>
-      <c r="F4" s="15">
-        <f>25.1940481719699%+0.250146297884746%</f>
-        <v>0.25444194469854647</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0.35310333359814411</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.34256513045241599</v>
+      <c r="C4" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.246</v>
+      </c>
+      <c r="F4" s="13">
+        <f>0.3%+25.4%</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21">
-        <v>3.7621388440872781E-2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3.9443772245188399E-2</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.36074787667407399</v>
-      </c>
-      <c r="F5" s="15">
-        <f>35.2824635948954%+1.26854772942805%</f>
-        <v>0.36551011324323446</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0.46299857929535271</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.45553179334302102</v>
+      <c r="C5" s="19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F5" s="13">
+        <f>1.3%+35.3%</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22">
-        <v>7.1148068507237899E-2</v>
-      </c>
-      <c r="D6" s="17">
-        <v>7.0969831220507804E-2</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.52400293686820987</v>
-      </c>
-      <c r="F6" s="17">
-        <f>49.9434106184313%+2.98442384592527%</f>
-        <v>0.52927834464356571</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0.56697648704363779</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.56285933275195199</v>
+      <c r="C6" s="20">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F6" s="15">
+        <f>3%+49.6%</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>0.33900000000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>0.34200000000000003</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>0.78500000000000003</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21">
-        <v>3.1297706398589413E-2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3.02625885723549E-2</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0.14326136920226301</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.13952883686758799</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0.67278041383865939</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.67193433270393299</v>
+      <c r="C8" s="19">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21">
-        <v>6.1498207885307632E-2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>6.11901292582177E-2</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0.23969972819586241</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.24664400365970701</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0.76398541263730135</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.76438105955160096</v>
+      <c r="C9" s="19">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.246</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22">
-        <v>0.15953573540777449</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.16717240453983501</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0.39844707796372658</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.41255737412149501</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.8275729768354857</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0.83853003234619095</v>
+      <c r="C10" s="20">
+        <v>0.157</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.159</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>0.41</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>0.40699999999999997</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>0.79100000000000004</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>0.78800000000000003</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>0.56799999999999995</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21">
-        <v>0.30320439853094422</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.30286792901334603</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.61358837863679794</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.61374960060737704</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.48031240736174918</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0.496643502309632</v>
+      <c r="C12" s="19">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.497</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="21">
-        <v>0.41026090343599991</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.41133490362861802</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.76939273645111428</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.77508082833734704</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.58692406963611532</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0.59768714880670304</v>
+      <c r="C13" s="19">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="22">
-        <v>0.53630110005521892</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0.53717995388110695</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.92894005345265362</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0.93449182525173702</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0.68668487712279502</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0.69882928445386205</v>
+      <c r="C14" s="20">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>0.76100000000000001</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>0.75900000000000001</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>0.76100000000000001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>0.96499999999999997</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="21">
-        <v>0.6623410646786152</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.66218666554087902</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.65928892840808417</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.65941577353575598</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.92544958315848302</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0.92449988873433697</v>
+      <c r="C16" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="21">
-        <v>0.74825745006399447</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.75176901309362198</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0.7458809257256328</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.75206639010440202</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0.9474937809846693</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0.95076940180278502</v>
+      <c r="C17" s="19">
+        <v>0.746</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.751</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.746</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="22">
-        <v>0.83089497550948255</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.84189420913670499</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0.83190418062661098</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0.84181319506445196</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.97057336678818595</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0.97528084690424199</v>
+      <c r="C18" s="20">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>14.2</v>
       </c>
       <c r="D19" s="9">
@@ -1137,225 +1137,225 @@
         <v>22.1</v>
       </c>
       <c r="H19" s="9">
-        <v>22.05</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="25">
-        <v>10.642127889904989</v>
+      <c r="C20" s="23">
+        <v>10.7</v>
       </c>
       <c r="D20" s="4">
-        <v>10.4097799540561</v>
-      </c>
-      <c r="E20" s="25">
-        <v>3.9458564428348062</v>
-      </c>
-      <c r="F20" s="27">
-        <v>4.0143281855253798</v>
-      </c>
-      <c r="G20" s="25">
-        <v>15.774620683803629</v>
-      </c>
-      <c r="H20" s="27">
-        <v>16.3744296337352</v>
-      </c>
-      <c r="I20" s="28"/>
+        <v>10.5</v>
+      </c>
+      <c r="E20" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F20" s="25">
+        <v>4</v>
+      </c>
+      <c r="G20" s="23">
+        <v>16</v>
+      </c>
+      <c r="H20" s="25">
+        <v>16.3</v>
+      </c>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="25">
-        <v>14.10756856081365</v>
+      <c r="C21" s="23">
+        <v>14.2</v>
       </c>
       <c r="D21" s="4">
-        <v>14.4176784007935</v>
-      </c>
-      <c r="E21" s="25">
-        <v>8.0495915173895476</v>
-      </c>
-      <c r="F21" s="27">
-        <v>8.4612552140236996</v>
-      </c>
-      <c r="G21" s="25">
-        <v>21.13816498421917</v>
-      </c>
-      <c r="H21" s="27">
-        <v>21.953184827904</v>
-      </c>
-      <c r="I21" s="28"/>
+        <v>14.3</v>
+      </c>
+      <c r="E21" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F21" s="25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G21" s="23">
+        <v>21</v>
+      </c>
+      <c r="H21" s="25">
+        <v>21.9</v>
+      </c>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="26">
-        <v>24.381827744089591</v>
+      <c r="C22" s="24">
+        <v>23.9</v>
       </c>
       <c r="D22" s="5">
-        <v>24.6535588167947</v>
-      </c>
-      <c r="E22" s="26">
-        <v>18.407808693027569</v>
-      </c>
-      <c r="F22" s="29">
-        <v>18.609379767353499</v>
-      </c>
-      <c r="G22" s="26">
-        <v>32.233685720564573</v>
-      </c>
-      <c r="H22" s="29">
-        <v>36.562610780570402</v>
-      </c>
-      <c r="I22" s="28"/>
+        <v>24.9</v>
+      </c>
+      <c r="E22" s="24">
+        <v>17.7</v>
+      </c>
+      <c r="F22" s="27">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G22" s="24">
+        <v>33</v>
+      </c>
+      <c r="H22" s="27">
+        <v>36.4</v>
+      </c>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="24">
-        <v>58.6</v>
+      <c r="C23" s="22">
+        <v>58.9</v>
       </c>
       <c r="D23" s="9">
         <v>59.03</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <v>20.7</v>
       </c>
-      <c r="F23" s="30">
-        <v>20.54</v>
-      </c>
-      <c r="G23" s="24">
+      <c r="F23" s="28">
+        <v>20.5</v>
+      </c>
+      <c r="G23" s="22">
         <v>15.1</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="28">
         <v>15.3</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18">
-        <v>32.86601067577601</v>
+      <c r="C24" s="16">
+        <v>32.700000000000003</v>
       </c>
       <c r="D24" s="4">
-        <v>34.545807399986799</v>
-      </c>
-      <c r="E24" s="25">
-        <v>9.1279213905874261</v>
-      </c>
-      <c r="F24" s="27">
-        <v>10.750458935406501</v>
-      </c>
-      <c r="G24" s="25">
-        <v>2.430053527942452</v>
-      </c>
-      <c r="H24" s="27">
-        <v>3.6496044062066502</v>
-      </c>
-      <c r="I24" s="28"/>
+        <v>34.1</v>
+      </c>
+      <c r="E24" s="23">
+        <v>9.1</v>
+      </c>
+      <c r="F24" s="25">
+        <v>9.9</v>
+      </c>
+      <c r="G24" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="H24" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="18">
-        <v>65.820696528769844</v>
+      <c r="C25" s="16">
+        <v>66.7</v>
       </c>
       <c r="D25" s="4">
-        <v>68.714465420894697</v>
-      </c>
-      <c r="E25" s="25">
-        <v>27.273634231520699</v>
-      </c>
-      <c r="F25" s="27">
-        <v>28.0449135268159</v>
-      </c>
-      <c r="G25" s="25">
-        <v>17.820540064336161</v>
-      </c>
-      <c r="H25" s="27">
-        <v>18.554581970763799</v>
-      </c>
-      <c r="I25" s="28"/>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E25" s="23">
+        <v>27.5</v>
+      </c>
+      <c r="F25" s="25">
+        <v>28.5</v>
+      </c>
+      <c r="G25" s="23">
+        <v>17.8</v>
+      </c>
+      <c r="H25" s="25">
+        <v>18.8</v>
+      </c>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="19">
-        <v>108.869383978043</v>
+      <c r="C26" s="17">
+        <v>107.7</v>
       </c>
       <c r="D26" s="5">
-        <v>107.11069591320999</v>
-      </c>
-      <c r="E26" s="26">
-        <v>54.139822210614533</v>
-      </c>
-      <c r="F26" s="29">
-        <v>52.423034850449703</v>
-      </c>
-      <c r="G26" s="26">
-        <v>40.515180222718087</v>
-      </c>
-      <c r="H26" s="29">
-        <v>44.234868584396203</v>
-      </c>
-      <c r="I26" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="E26" s="24">
+        <v>54</v>
+      </c>
+      <c r="F26" s="27">
+        <v>55</v>
+      </c>
+      <c r="G26" s="24">
+        <v>40</v>
+      </c>
+      <c r="H26" s="27">
+        <v>44.3</v>
+      </c>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="20"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="C27" s="18"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="20"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="C28" s="18"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31"/>

--- a/exposan/bwaise/comparison/comparison_summary.xlsx
+++ b/exposan/bwaise/comparison/comparison_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yalinli_cabbi/Library/CloudStorage/OneDrive-Personal/Coding/es/exposan/bwaise/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="13_ncr:1_{A41B6D32-C405-4C4B-AC94-404E34509E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C352C85B-5E80-9D40-B4DB-EE4E5DA03E48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD138D7-E58D-1F49-B19C-14CBE5164B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25020" yWindow="8920" windowWidth="25920" windowHeight="16060" xr2:uid="{C322E86D-AF8D-7D47-9916-FBB30EE50BE1}"/>
+    <workbookView xWindow="17560" yWindow="7100" windowWidth="25920" windowHeight="16060" xr2:uid="{C322E86D-AF8D-7D47-9916-FBB30EE50BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -339,10 +339,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,7 +663,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,26 +679,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
@@ -719,7 +719,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -796,7 +796,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -847,7 +847,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -895,7 +895,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1115,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1216,14 +1216,14 @@
       <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="22">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="D23" s="9">
         <v>59.03</v>
@@ -1243,7 +1243,7 @@
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1377,16 +1377,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
